--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126111a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126111a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>coeficientes de variação das estimativas de pessoas de 10 anos ou mais de idade que foram vítimas de agressão física, no período de referência de 365 dias (%)</t>
   </si>
@@ -40,18 +40,12 @@
     <t>total (1)(2)</t>
   </si>
   <si>
-    <t>sexo</t>
-  </si>
-  <si>
     <t>homens</t>
   </si>
   <si>
     <t>mulheres</t>
   </si>
   <si>
-    <t>cor ou raça</t>
-  </si>
-  <si>
     <t>branca</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t>parda</t>
   </si>
   <si>
-    <t>grupos de idade</t>
-  </si>
-  <si>
     <t>10 a 24 anos</t>
   </si>
   <si>
@@ -82,9 +73,6 @@
     <t>50 anos ou mais</t>
   </si>
   <si>
-    <t>nível de instrução</t>
-  </si>
-  <si>
     <t>sem instrução</t>
   </si>
   <si>
@@ -106,15 +94,9 @@
     <t>superior completo ou equivalente</t>
   </si>
   <si>
-    <t>classes de rendimento mensal domiciliar per capita</t>
-  </si>
-  <si>
     <t>total (3)(4)</t>
   </si>
   <si>
-    <t xml:space="preserve">sem rendimento a menos </t>
-  </si>
-  <si>
     <t>de 1/4 do salário mínimo (3)(5)</t>
   </si>
   <si>
@@ -128,12 +110,6 @@
   </si>
   <si>
     <t xml:space="preserve">2 salários mínimos ou mais (3) </t>
-  </si>
-  <si>
-    <t>fonte: ibge, diretoria de pesquisas, coordenação de trabalho e rendimento, pesquisa nacional por amostra de domicílios 2009.</t>
-  </si>
-  <si>
-    <t>(1) inclusive as pessoas de cor ou raça amarela, indígena ou sem declaração. (2) inclusive as pessoas com nível de instrução não determinado. (3) ex-</t>
   </si>
 </sst>
 </file>
@@ -491,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,28 +532,46 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>3.079325156913104</v>
+      </c>
+      <c r="C5">
+        <v>9.977114848991054</v>
+      </c>
+      <c r="D5">
+        <v>6.355730513595561</v>
+      </c>
+      <c r="E5">
+        <v>6.654784778351226</v>
+      </c>
+      <c r="F5">
+        <v>5.294407327700156</v>
+      </c>
+      <c r="G5">
+        <v>5.688449758418131</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>3.079325156913104</v>
+        <v>3.699814795713458</v>
       </c>
       <c r="C6">
-        <v>9.977114848991054</v>
+        <v>12.80384266185947</v>
       </c>
       <c r="D6">
-        <v>6.355730513595561</v>
+        <v>9.034900155863488</v>
       </c>
       <c r="E6">
-        <v>6.654784778351226</v>
+        <v>10.09548425054046</v>
       </c>
       <c r="F6">
-        <v>5.294407327700156</v>
+        <v>5.484340704946018</v>
       </c>
       <c r="G6">
-        <v>5.688449758418131</v>
+        <v>6.795972447333219</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -585,50 +579,68 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>3.699814795713458</v>
+        <v>3.719984871596598</v>
       </c>
       <c r="C7">
-        <v>12.80384266185947</v>
+        <v>12.05459977699199</v>
       </c>
       <c r="D7">
-        <v>9.034900155863488</v>
+        <v>8.387897646980667</v>
       </c>
       <c r="E7">
-        <v>10.09548425054046</v>
+        <v>9.311045168048773</v>
       </c>
       <c r="F7">
-        <v>5.484340704946018</v>
+        <v>6.814689349460098</v>
       </c>
       <c r="G7">
-        <v>6.795972447333219</v>
+        <v>6.807086985989138</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B8">
+        <v>3.218018096386755</v>
+      </c>
+      <c r="C8">
+        <v>10.29592563098677</v>
+      </c>
+      <c r="D8">
+        <v>7.075688041833315</v>
+      </c>
+      <c r="E8">
+        <v>7.372102952409499</v>
+      </c>
+      <c r="F8">
+        <v>4.704754448394305</v>
+      </c>
+      <c r="G8">
+        <v>5.804947562879859</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>3.719984871596598</v>
+        <v>7.17686576275876</v>
       </c>
       <c r="C9">
-        <v>12.05459977699199</v>
+        <v>21.95311569888819</v>
       </c>
       <c r="D9">
-        <v>8.387897646980667</v>
+        <v>14.127600274506</v>
       </c>
       <c r="E9">
-        <v>9.311045168048773</v>
+        <v>16.75112537544942</v>
       </c>
       <c r="F9">
-        <v>6.814689349460098</v>
+        <v>10.37551837596155</v>
       </c>
       <c r="G9">
-        <v>6.807086985989138</v>
+        <v>14.51068670666949</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -636,22 +648,22 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>3.218018096386755</v>
+        <v>3.418410643417406</v>
       </c>
       <c r="C10">
-        <v>10.29592563098677</v>
+        <v>11.82618263751631</v>
       </c>
       <c r="D10">
-        <v>7.075688041833315</v>
+        <v>8.187219278784388</v>
       </c>
       <c r="E10">
-        <v>7.372102952409499</v>
+        <v>8.061604655953476</v>
       </c>
       <c r="F10">
-        <v>4.704754448394305</v>
+        <v>4.981554769522433</v>
       </c>
       <c r="G10">
-        <v>5.804947562879859</v>
+        <v>6.098140677338447</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -659,22 +671,22 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>7.17686576275876</v>
+        <v>3.6359398473125</v>
       </c>
       <c r="C11">
-        <v>21.95311569888819</v>
+        <v>11.81477115228546</v>
       </c>
       <c r="D11">
-        <v>14.127600274506</v>
+        <v>7.472453635594438</v>
       </c>
       <c r="E11">
-        <v>16.75112537544942</v>
+        <v>9.395903223083417</v>
       </c>
       <c r="F11">
-        <v>10.37551837596155</v>
+        <v>5.586504167450572</v>
       </c>
       <c r="G11">
-        <v>14.51068670666949</v>
+        <v>6.189769950581098</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -682,50 +694,68 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>3.418410643417406</v>
+        <v>4.581343865235409</v>
       </c>
       <c r="C12">
-        <v>11.82618263751631</v>
+        <v>16.37481330830928</v>
       </c>
       <c r="D12">
-        <v>8.187219278784388</v>
+        <v>10.30478766126267</v>
       </c>
       <c r="E12">
-        <v>8.061604655953476</v>
+        <v>10.38657801919164</v>
       </c>
       <c r="F12">
-        <v>4.981554769522433</v>
+        <v>7.721876049295693</v>
       </c>
       <c r="G12">
-        <v>6.098140677338447</v>
+        <v>9.313167497598258</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B13">
+        <v>7.646092287190675</v>
+      </c>
+      <c r="C13">
+        <v>29.31915242588811</v>
+      </c>
+      <c r="D13">
+        <v>20.45341524520418</v>
+      </c>
+      <c r="E13">
+        <v>17.68029855726265</v>
+      </c>
+      <c r="F13">
+        <v>11.75606261000001</v>
+      </c>
+      <c r="G13">
+        <v>14.20586479131037</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>3.6359398473125</v>
+        <v>6.193682602312428</v>
       </c>
       <c r="C14">
-        <v>11.81477115228546</v>
+        <v>23.18636066577746</v>
       </c>
       <c r="D14">
-        <v>7.472453635594438</v>
+        <v>15.99509444101196</v>
       </c>
       <c r="E14">
-        <v>9.395903223083417</v>
+        <v>15.40600937746579</v>
       </c>
       <c r="F14">
-        <v>5.586504167450572</v>
+        <v>10.80338337401115</v>
       </c>
       <c r="G14">
-        <v>6.189769950581098</v>
+        <v>11.68784695787748</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -733,22 +763,22 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>4.581343865235409</v>
+        <v>6.225617660556633</v>
       </c>
       <c r="C15">
-        <v>16.37481330830928</v>
+        <v>18.1614555058279</v>
       </c>
       <c r="D15">
-        <v>10.30478766126267</v>
+        <v>15.18575445817143</v>
       </c>
       <c r="E15">
-        <v>10.38657801919164</v>
+        <v>15.1313554514039</v>
       </c>
       <c r="F15">
-        <v>7.721876049295693</v>
+        <v>11.25218205562717</v>
       </c>
       <c r="G15">
-        <v>9.313167497598258</v>
+        <v>12.51862478770505</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -756,22 +786,22 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>7.646092287190675</v>
+        <v>7.744146101777296</v>
       </c>
       <c r="C16">
-        <v>29.31915242588811</v>
+        <v>25.46788546426306</v>
       </c>
       <c r="D16">
-        <v>20.45341524520418</v>
+        <v>16.95506244488465</v>
       </c>
       <c r="E16">
-        <v>17.68029855726265</v>
+        <v>20.22520776229557</v>
       </c>
       <c r="F16">
-        <v>11.75606261000001</v>
+        <v>11.67106420180562</v>
       </c>
       <c r="G16">
-        <v>14.20586479131037</v>
+        <v>14.73036792665366</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -779,22 +809,22 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>6.193682602312428</v>
+        <v>3.349489384463116</v>
       </c>
       <c r="C17">
-        <v>23.18636066577746</v>
+        <v>12.69982252316445</v>
       </c>
       <c r="D17">
-        <v>15.99509444101196</v>
+        <v>7.280899352818935</v>
       </c>
       <c r="E17">
-        <v>15.40600937746579</v>
+        <v>8.831158668868355</v>
       </c>
       <c r="F17">
-        <v>10.80338337401115</v>
+        <v>5.371772565320745</v>
       </c>
       <c r="G17">
-        <v>11.68784695787748</v>
+        <v>6.146353784116122</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -802,50 +832,68 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>6.225617660556633</v>
+        <v>6.595682686846433</v>
       </c>
       <c r="C18">
-        <v>18.1614555058279</v>
+        <v>21.81520898110559</v>
       </c>
       <c r="D18">
-        <v>15.18575445817143</v>
+        <v>15.4025867267403</v>
       </c>
       <c r="E18">
-        <v>15.1313554514039</v>
+        <v>16.36201935437085</v>
       </c>
       <c r="F18">
-        <v>11.25218205562717</v>
+        <v>10.4635429682875</v>
       </c>
       <c r="G18">
-        <v>12.51862478770505</v>
+        <v>12.89311019849992</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B19">
+        <v>7.321722190932323</v>
+      </c>
+      <c r="C19">
+        <v>26.08974009720048</v>
+      </c>
+      <c r="D19">
+        <v>16.14711746080082</v>
+      </c>
+      <c r="E19">
+        <v>18.56473925288924</v>
+      </c>
+      <c r="F19">
+        <v>11.85551380057074</v>
+      </c>
+      <c r="G19">
+        <v>16.20543330647472</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B20">
-        <v>7.744146101777296</v>
+        <v>5.684061616795694</v>
       </c>
       <c r="C20">
-        <v>25.46788546426306</v>
+        <v>19.21161428346506</v>
       </c>
       <c r="D20">
-        <v>16.95506244488465</v>
+        <v>12.6323245414897</v>
       </c>
       <c r="E20">
-        <v>20.22520776229557</v>
+        <v>12.03667560767057</v>
       </c>
       <c r="F20">
-        <v>11.67106420180562</v>
+        <v>9.509063109760797</v>
       </c>
       <c r="G20">
-        <v>14.73036792665366</v>
+        <v>11.68080515589273</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -853,22 +901,22 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>3.349489384463116</v>
+        <v>11.98136764716357</v>
       </c>
       <c r="C21">
-        <v>12.69982252316445</v>
+        <v>35.90495441549168</v>
       </c>
       <c r="D21">
-        <v>7.280899352818935</v>
+        <v>30.97239247376642</v>
       </c>
       <c r="E21">
-        <v>8.831158668868355</v>
+        <v>25.65175579934608</v>
       </c>
       <c r="F21">
-        <v>5.371772565320745</v>
+        <v>24.07464282830812</v>
       </c>
       <c r="G21">
-        <v>6.146353784116122</v>
+        <v>22.98885605881641</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -876,22 +924,22 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>6.595682686846433</v>
+        <v>11.04503766516098</v>
       </c>
       <c r="C22">
-        <v>21.81520898110559</v>
+        <v>36.85559493454419</v>
       </c>
       <c r="D22">
-        <v>15.4025867267403</v>
+        <v>25.0800289590587</v>
       </c>
       <c r="E22">
-        <v>16.36201935437085</v>
+        <v>26.1549274844076</v>
       </c>
       <c r="F22">
-        <v>10.4635429682875</v>
+        <v>21.55720828672651</v>
       </c>
       <c r="G22">
-        <v>12.89311019849992</v>
+        <v>20.29093164441123</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -899,22 +947,22 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>7.321722190932323</v>
+        <v>2.690262473487546</v>
       </c>
       <c r="C23">
-        <v>26.08974009720048</v>
+        <v>8.113188246655231</v>
       </c>
       <c r="D23">
-        <v>16.14711746080082</v>
+        <v>5.584992995815738</v>
       </c>
       <c r="E23">
-        <v>18.56473925288924</v>
+        <v>5.949340368998812</v>
       </c>
       <c r="F23">
-        <v>11.85551380057074</v>
+        <v>4.150823021751123</v>
       </c>
       <c r="G23">
-        <v>16.20543330647472</v>
+        <v>4.893328902055688</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -922,22 +970,22 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>5.684061616795694</v>
+        <v>6.664449992198526</v>
       </c>
       <c r="C24">
-        <v>19.21161428346506</v>
+        <v>22.83766857011599</v>
       </c>
       <c r="D24">
-        <v>12.6323245414897</v>
+        <v>13.32674855096612</v>
       </c>
       <c r="E24">
-        <v>12.03667560767057</v>
+        <v>16.09797721827423</v>
       </c>
       <c r="F24">
-        <v>9.509063109760797</v>
+        <v>9.335772229013148</v>
       </c>
       <c r="G24">
-        <v>11.68080515589273</v>
+        <v>12.02303721197358</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -945,22 +993,22 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>11.98136764716357</v>
+        <v>5.105816842551715</v>
       </c>
       <c r="C25">
-        <v>35.90495441549168</v>
+        <v>15.99457001945389</v>
       </c>
       <c r="D25">
-        <v>30.97239247376642</v>
+        <v>12.05623120152365</v>
       </c>
       <c r="E25">
-        <v>25.65175579934608</v>
+        <v>13.21125417502363</v>
       </c>
       <c r="F25">
-        <v>24.07464282830812</v>
+        <v>7.797500682292634</v>
       </c>
       <c r="G25">
-        <v>22.98885605881641</v>
+        <v>8.980587286451305</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -968,180 +1016,68 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>11.04503766516098</v>
+        <v>4.528945762894009</v>
       </c>
       <c r="C26">
-        <v>36.85559493454419</v>
+        <v>16.32804753548662</v>
       </c>
       <c r="D26">
-        <v>25.0800289590587</v>
+        <v>9.223858554008485</v>
       </c>
       <c r="E26">
-        <v>26.1549274844076</v>
+        <v>10.79447251194944</v>
       </c>
       <c r="F26">
-        <v>21.55720828672651</v>
+        <v>7.54854769188175</v>
       </c>
       <c r="G26">
-        <v>20.29093164441123</v>
+        <v>7.958668217896354</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B27">
+        <v>5.078935193882741</v>
+      </c>
+      <c r="C27">
+        <v>16.53057859186484</v>
+      </c>
+      <c r="D27">
+        <v>11.59495552015678</v>
+      </c>
+      <c r="E27">
+        <v>12.97853814695111</v>
+      </c>
+      <c r="F27">
+        <v>9.021876214170069</v>
+      </c>
+      <c r="G27">
+        <v>8.927946120143638</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B28">
-        <v>2.690262473487546</v>
+        <v>7.232548959101454</v>
       </c>
       <c r="C28">
-        <v>8.113188246655231</v>
+        <v>20.60488064710036</v>
       </c>
       <c r="D28">
-        <v>5.584992995815738</v>
+        <v>14.78193326209205</v>
       </c>
       <c r="E28">
-        <v>5.949340368998812</v>
+        <v>15.48063242787498</v>
       </c>
       <c r="F28">
-        <v>4.150823021751123</v>
+        <v>14.79791998009925</v>
       </c>
       <c r="G28">
-        <v>4.893328902055688</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>6.664449992198526</v>
-      </c>
-      <c r="C30">
-        <v>22.83766857011599</v>
-      </c>
-      <c r="D30">
-        <v>13.32674855096612</v>
-      </c>
-      <c r="E30">
-        <v>16.09797721827423</v>
-      </c>
-      <c r="F30">
-        <v>9.335772229013148</v>
-      </c>
-      <c r="G30">
-        <v>12.02303721197358</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>5.105816842551715</v>
-      </c>
-      <c r="C31">
-        <v>15.99457001945389</v>
-      </c>
-      <c r="D31">
-        <v>12.05623120152365</v>
-      </c>
-      <c r="E31">
-        <v>13.21125417502363</v>
-      </c>
-      <c r="F31">
-        <v>7.797500682292634</v>
-      </c>
-      <c r="G31">
-        <v>8.980587286451305</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32">
-        <v>4.528945762894009</v>
-      </c>
-      <c r="C32">
-        <v>16.32804753548662</v>
-      </c>
-      <c r="D32">
-        <v>9.223858554008485</v>
-      </c>
-      <c r="E32">
-        <v>10.79447251194944</v>
-      </c>
-      <c r="F32">
-        <v>7.54854769188175</v>
-      </c>
-      <c r="G32">
-        <v>7.958668217896354</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33">
-        <v>5.078935193882741</v>
-      </c>
-      <c r="C33">
-        <v>16.53057859186484</v>
-      </c>
-      <c r="D33">
-        <v>11.59495552015678</v>
-      </c>
-      <c r="E33">
-        <v>12.97853814695111</v>
-      </c>
-      <c r="F33">
-        <v>9.021876214170069</v>
-      </c>
-      <c r="G33">
-        <v>8.927946120143638</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>7.232548959101454</v>
-      </c>
-      <c r="C34">
-        <v>20.60488064710036</v>
-      </c>
-      <c r="D34">
-        <v>14.78193326209205</v>
-      </c>
-      <c r="E34">
-        <v>15.48063242787498</v>
-      </c>
-      <c r="F34">
-        <v>14.79791998009925</v>
-      </c>
-      <c r="G34">
         <v>13.59748882435629</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
